--- a/medicine/Mort/Cimetière_de_Golzheim/Cimetière_de_Golzheim.xlsx
+++ b/medicine/Mort/Cimetière_de_Golzheim/Cimetière_de_Golzheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Golzheim</t>
+          <t>Cimetière_de_Golzheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Golzheim est un ancien cimetière de Düsseldorf. La partie nord du cimetière (au nord de la Klever Straße (de)) se trouve dans le quartier de Golzheim, la partie sud dans le quartier de Pempelfort. Le cimetière est maintenant utilisé comme parc public; les pierres tombales survivantes sont sous la protection des monuments.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Golzheim</t>
+          <t>Cimetière_de_Golzheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Golzheim est le premier cimetière de la ville de Düsseldorf. Avant sa construction, les inhumations ont lieu dans le cimetière de la collégiale Saint-Lambert (de) de la vieille ville. Lorsque ce cimetière est construit dans la seconde moitié du XVIIIe siècle, il doit être abandonné en raison de la surpopulation et des problèmes d'hygiène associés, la communauté catholique ont d'abord construit un cimetière de remplacement devant la porte Flinger. Cependant, comme cela s'avère vite être un obstacle à l'urbanisme et que les deux communautés protestantes de la ville ont également besoin d'un cimetière, l'électeur palatinat-bavarois Maximilien-Joseph, alors souverain du duché de Berg, mandate son maître d'œuvre de la cour de Düsseldorf, Kaspar Huschberger (de), le 27 janvier 1804 pour chercher un nouveau site de cimetière. Le choix d'un cimetière ouvert aux deux confessions bien en dehors des limites de la ville de l'époque se porte sur un terrain approximativement rectangulaire à environ deux kilomètres au nord des limites de la ville, à proximité du village de Golzheim et à proximité immédiate des rives du Rhin et de l'île de Golzheim (de). Étant donné que la rivière a formé ici un banc de sable d'environ 2 m de haut, il y a une protection contre les inondations, la distance nécessaire au niveau des eaux souterraines et les conditions du sol pour les enterrements.
 Le cimetière est divisé en deux sections selon la dénomination du défunt; les catholiques reçoivent la plus grande partie sud du cimetière en fonction de leur proportion plus élevée de la population. L'ouverture du nouveau cimetière a lieu en 1805 ; le 22 La première inhumation y a lieu en mai de la même année. Dans les toutes premières années de son existence, le cimetière est mal équipé ; il n'y a donc pas de plantation d'arbres, pas d'enclos ou de porte d'entrée. Les plans de construction d'un mur de cimetière pour le cimetière de Golzheim existent déjà au début du XIXe siècle, mais ne sont pas réalisés pendant une longue période, notamment en raison de la pénurie financière causée par la guerre.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Golzheim</t>
+          <t>Cimetière_de_Golzheim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Tombes de personnalités importantes (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(N = partie nord, S = partie sud, NE = tombe non conservée)
 Hermann Altgelt (de) (1795–1871), conseil scolaire du gouvernement prussien (N)
@@ -595,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Golzheim</t>
+          <t>Cimetière_de_Golzheim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,9 +629,11 @@
           <t>Pierre commémorative de Schwesig</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pierre commémorative pour le peintre Karl Schwesig, qui rappelle également les artistes persécutés de Düsseldorf Monjau, Levin et Ludwigs. Ce lieu de mémoire pour les victimes du national-socialisme est initié par le peintre et collectionneur d'art Carl Lauterbach. Le peintre Günther Cremers (1928-2004), président de l'Association des artistes de Düsseldorf (de), dessine la pierre et le maître tailleur de pierre du cimetière du Sud (de), Josef Müller, dit Jupp, le réalise. Un fragment architectural de la façade de la Galerie d'art (de) détruite pendant la Seconde Guerre mondiale est utilisé et érigé en juin 1982 sur la partie sud du cimetière de Golzheim, terrain 1[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pierre commémorative pour le peintre Karl Schwesig, qui rappelle également les artistes persécutés de Düsseldorf Monjau, Levin et Ludwigs. Ce lieu de mémoire pour les victimes du national-socialisme est initié par le peintre et collectionneur d'art Carl Lauterbach. Le peintre Günther Cremers (1928-2004), président de l'Association des artistes de Düsseldorf (de), dessine la pierre et le maître tailleur de pierre du cimetière du Sud (de), Josef Müller, dit Jupp, le réalise. Un fragment architectural de la façade de la Galerie d'art (de) détruite pendant la Seconde Guerre mondiale est utilisé et érigé en juin 1982 sur la partie sud du cimetière de Golzheim, terrain 1.
 Une inscription:
 À la mémoire du peintre Karl Schwesig (de) 19.6.1898 19.6.1955
 Peintre Franz Monjau (de) 1903–1945 Camp de concentration de Buchenwald
@@ -630,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Golzheim</t>
+          <t>Cimetière_de_Golzheim</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,7 +666,9 @@
           <t>Poème</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le poète Karl Immermann, qui est enterré au cimetière de Golzheim, dépeint le lieu de sépulture avec le poème suivant :
